--- a/AirIndia/TestData/InputData.xlsx
+++ b/AirIndia/TestData/InputData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\182278\source\repos\MiniProject\AirIndia\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702CC28D-E827-4B34-BDEF-6157B52F9734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5F2BBE-6D74-4BDE-A077-673431747EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>From</t>
   </si>
@@ -86,6 +86,18 @@
   </si>
   <si>
     <t>Economy</t>
+  </si>
+  <si>
+    <t>DOBd</t>
+  </si>
+  <si>
+    <t>DOBm</t>
+  </si>
+  <si>
+    <t>DOBy</t>
+  </si>
+  <si>
+    <t>Jul</t>
   </si>
 </sst>
 </file>
@@ -411,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -433,7 +445,7 @@
     <col min="15" max="15" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -479,8 +491,17 @@
       <c r="O1" t="s">
         <v>20</v>
       </c>
+      <c r="P1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -525,6 +546,15 @@
       </c>
       <c r="O2">
         <v>9876543456</v>
+      </c>
+      <c r="P2">
+        <v>29</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2">
+        <v>1994</v>
       </c>
     </row>
   </sheetData>
